--- a/绘图/队列示意图.xlsx
+++ b/绘图/队列示意图.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">front </t>
   </si>
@@ -57,7 +57,7 @@
     </r>
   </si>
   <si>
-    <t>(tail + 1) % 8 = =  front</t>
+    <t>(tail + 1) % capacity = =  front</t>
   </si>
   <si>
     <r>
@@ -86,16 +86,22 @@
     </r>
   </si>
   <si>
-    <t>入队操作：tail += 1</t>
+    <t>入队操作：tail = ( tail + 1 ) % capacity</t>
   </si>
   <si>
-    <t>出队操作：front += 1</t>
+    <t>出队操作：front = ( front + 1 ) % capacity</t>
   </si>
   <si>
-    <t xml:space="preserve">队列元素大小：（tail + 8 - front）% 8 </t>
+    <t>队列元素大小（size）：（tail - front + capacity）% capacity</t>
   </si>
   <si>
     <t>其中：capacity = =  8</t>
+  </si>
+  <si>
+    <t>注意：在循环队列中，涉及到索引操作时要特别注意，一般都需要加 capacity 然后在 % capacity</t>
+  </si>
+  <si>
+    <t>(正常索引操作 + capacity) % capacity</t>
   </si>
 </sst>
 </file>
@@ -741,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,10 +760,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -770,6 +776,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1840,9 +1849,7 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -2191,6 +2198,259 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>循环队列!$L$1:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="60"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.171139644116834"/>
+          <c:y val="0.0792511524330271"/>
+          <c:w val="0.558340039084952"/>
+          <c:h val="0.769242952169781"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
               <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -2531,6 +2791,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -5127,6 +5427,525 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5832,7 +6651,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5505450" y="4191000"/>
-        <a:ext cx="5323840" cy="3695065"/>
+        <a:ext cx="6485890" cy="3695065"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5892,7 +6711,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5505450" y="8658225"/>
-        <a:ext cx="5323840" cy="3695065"/>
+        <a:ext cx="6485890" cy="3695065"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5922,11 +6741,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5495925" y="13020675"/>
-        <a:ext cx="5323840" cy="3695065"/>
+        <a:ext cx="6485890" cy="3695065"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="62" name="图表 61"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="552450" y="13030200"/>
+        <a:ext cx="4638040" cy="3695065"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14513,6 +15362,1654 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.508488499452355</cdr:x>
+      <cdr:y>0.174256745145214</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.568044906900329</cdr:x>
+      <cdr:y>0.24849630520708</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2358390" y="643890"/>
+          <a:ext cx="276225" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.615279299014239</cdr:x>
+      <cdr:y>0.535143495445953</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.683050383351588</cdr:x>
+      <cdr:y>0.609383055507819</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="矩形 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2853690" y="1977390"/>
+          <a:ext cx="314325" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.508488499452355</cdr:x>
+      <cdr:y>0.679498195566248</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.561883899233297</cdr:x>
+      <cdr:y>0.753737755628115</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="矩形 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2358390" y="2510790"/>
+          <a:ext cx="247650" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.335980284775465</cdr:x>
+      <cdr:y>0.684653720570545</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39539978094195</cdr:x>
+      <cdr:y>0.758893280632411</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="矩形 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1558290" y="2529840"/>
+          <a:ext cx="275590" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.214813800657174</cdr:x>
+      <cdr:y>0.529987970441657</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.278614457831325</cdr:x>
+      <cdr:y>0.604227530503523</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="矩形 5"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="996315" y="1958340"/>
+          <a:ext cx="295910" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.206599123767798</cdr:x>
+      <cdr:y>0.334078020278398</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.258077765607886</cdr:x>
+      <cdr:y>0.408317580340265</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="矩形 6"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="958215" y="1234440"/>
+          <a:ext cx="238760" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.333926615553122</cdr:x>
+      <cdr:y>0.17941227014951</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.395673603504929</cdr:x>
+      <cdr:y>0.253651830211377</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="矩形 7"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1548765" y="662940"/>
+          <a:ext cx="286385" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.494112814895947</cdr:x>
+      <cdr:y>0.0460639394981093</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.691265060240964</cdr:x>
+      <cdr:y>0.120316259883121</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="矩形 8"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2291715" y="170180"/>
+          <a:ext cx="914400" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>front</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.259994523548741</cdr:x>
+      <cdr:y>0.0615393758465174</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.457146768893757</cdr:x>
+      <cdr:y>0.135791696231529</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="矩形 9"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1205865" y="227392"/>
+          <a:ext cx="914400" cy="274367"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr>
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tail</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.274370208105148</cdr:x>
+      <cdr:y>0.902028188380887</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.570098576122673</cdr:x>
+      <cdr:y>0.971639738741836</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="矩形 10"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1272540" y="3332480"/>
+          <a:ext cx="1371600" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.303121577217963</cdr:x>
+      <cdr:y>0.881422924901186</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60487404162103</cdr:x>
+      <cdr:y>0.987283038322736</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="矩形 11"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1405890" y="3256915"/>
+          <a:ext cx="1399540" cy="391160"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>队头：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>front = 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>队尾：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>tail = 7 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.620071193866375</cdr:x>
+      <cdr:y>0.324626224437189</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.67552026286966</cdr:x>
+      <cdr:y>0.398865784499055</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="矩形 12"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2875915" y="1199515"/>
+          <a:ext cx="257175" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -14771,16 +17268,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="I1:L14"/>
+  <dimension ref="I1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="9" max="9" width="20.875" customWidth="1"/>
-    <col min="11" max="11" width="37.875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="12:12">
@@ -14819,10 +17317,10 @@
       <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="5"/>
       <c r="L5">
         <v>1</v>
       </c>
@@ -14836,8 +17334,8 @@
       <c r="I7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="L7">
@@ -14849,29 +17347,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="9:10">
+    <row r="9" spans="9:11">
       <c r="I9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="9:10">
+    <row r="10" spans="9:11">
       <c r="I10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="12" spans="9:11">
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" s="9" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="16" spans="9:12">
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="9:11">
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
